--- a/data/beer.xlsx
+++ b/data/beer.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
-  <si>
-    <t xml:space="preserve">marca</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="82">
   <si>
     <t xml:space="preserve">precio</t>
   </si>
@@ -40,439 +37,232 @@
     <t xml:space="preserve">origen</t>
   </si>
   <si>
-    <t xml:space="preserve">m1</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.24</t>
   </si>
   <si>
     <t xml:space="preserve">5.2</t>
   </si>
   <si>
-    <t xml:space="preserve">m2</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.79</t>
   </si>
   <si>
-    <t xml:space="preserve">m3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.96</t>
   </si>
   <si>
     <t xml:space="preserve">4.9</t>
   </si>
   <si>
-    <t xml:space="preserve">m4</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.7</t>
   </si>
   <si>
-    <t xml:space="preserve">m5</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.11</t>
   </si>
   <si>
     <t xml:space="preserve">5.5</t>
   </si>
   <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.85</t>
   </si>
   <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.52</t>
   </si>
   <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.46</t>
   </si>
   <si>
     <t xml:space="preserve">5.1</t>
   </si>
   <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.4</t>
   </si>
   <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.71</t>
   </si>
   <si>
     <t xml:space="preserve">4.8</t>
   </si>
   <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.7</t>
   </si>
   <si>
     <t xml:space="preserve">4.4</t>
   </si>
   <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.99</t>
   </si>
   <si>
     <t xml:space="preserve">4.3</t>
   </si>
   <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.1</t>
   </si>
   <si>
-    <t xml:space="preserve">m14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m15</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.31</t>
   </si>
   <si>
     <t xml:space="preserve">5.8</t>
   </si>
   <si>
-    <t xml:space="preserve">m16</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.42</t>
   </si>
   <si>
     <t xml:space="preserve">5.9</t>
   </si>
   <si>
-    <t xml:space="preserve">m17</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.79</t>
   </si>
   <si>
-    <t xml:space="preserve">m18</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.05</t>
   </si>
   <si>
     <t xml:space="preserve">5.6</t>
   </si>
   <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.26</t>
   </si>
   <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.84</t>
   </si>
   <si>
     <t xml:space="preserve">5.3</t>
   </si>
   <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.22</t>
   </si>
   <si>
-    <t xml:space="preserve">m22</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.12</t>
   </si>
   <si>
-    <t xml:space="preserve">m23</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.37</t>
   </si>
   <si>
-    <t xml:space="preserve">m24</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.47</t>
   </si>
   <si>
-    <t xml:space="preserve">m25</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.72</t>
   </si>
   <si>
     <t xml:space="preserve">3.7</t>
   </si>
   <si>
-    <t xml:space="preserve">m26</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.59</t>
   </si>
   <si>
-    <t xml:space="preserve">m27</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.36</t>
   </si>
   <si>
-    <t xml:space="preserve">m28</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.52</t>
   </si>
   <si>
-    <t xml:space="preserve">m29</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.34</t>
   </si>
   <si>
-    <t xml:space="preserve">m30</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">m31</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.78</t>
   </si>
   <si>
-    <t xml:space="preserve">m32</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.63</t>
   </si>
   <si>
-    <t xml:space="preserve">m33</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.41</t>
   </si>
   <si>
-    <t xml:space="preserve">m34</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.39</t>
   </si>
   <si>
-    <t xml:space="preserve">m35</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.52</t>
   </si>
   <si>
-    <t xml:space="preserve">m36</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.38</t>
   </si>
   <si>
-    <t xml:space="preserve">m37</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.68</t>
   </si>
   <si>
     <t xml:space="preserve">4.6</t>
   </si>
   <si>
-    <t xml:space="preserve">m38</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.82</t>
   </si>
   <si>
-    <t xml:space="preserve">m39</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.83</t>
   </si>
   <si>
-    <t xml:space="preserve">m40</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.8</t>
   </si>
   <si>
-    <t xml:space="preserve">m41</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.82</t>
   </si>
   <si>
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
-    <t xml:space="preserve">m42</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
-    <t xml:space="preserve">m43</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.83</t>
   </si>
   <si>
-    <t xml:space="preserve">m44</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.02</t>
   </si>
   <si>
-    <t xml:space="preserve">m45</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.88</t>
   </si>
   <si>
-    <t xml:space="preserve">m46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m48</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.95</t>
   </si>
   <si>
-    <t xml:space="preserve">m49</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.27</t>
   </si>
   <si>
-    <t xml:space="preserve">m50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m51</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.26</t>
   </si>
   <si>
-    <t xml:space="preserve">m52</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.19</t>
   </si>
   <si>
-    <t xml:space="preserve">m53</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.9</t>
   </si>
   <si>
-    <t xml:space="preserve">m54</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.36</t>
   </si>
   <si>
-    <t xml:space="preserve">m55</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.93</t>
   </si>
   <si>
-    <t xml:space="preserve">m56</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.25</t>
   </si>
   <si>
-    <t xml:space="preserve">m57</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.03</t>
   </si>
   <si>
-    <t xml:space="preserve">m58</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2</t>
   </si>
   <si>
-    <t xml:space="preserve">m59</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.86</t>
   </si>
   <si>
-    <t xml:space="preserve">m60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m62</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.49</t>
   </si>
   <si>
     <t xml:space="preserve">3.6</t>
   </si>
   <si>
-    <t xml:space="preserve">m63</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.24</t>
   </si>
   <si>
-    <t xml:space="preserve">m64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m65</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.99</t>
   </si>
   <si>
-    <t xml:space="preserve">m66</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.75</t>
   </si>
   <si>
-    <t xml:space="preserve">m67</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
-    <t xml:space="preserve">m68</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m69</t>
   </si>
   <si>
     <t xml:space="preserve">5.63</t>
@@ -556,7 +346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,14 +363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,37 +379,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>159</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -629,11 +416,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
+      <c r="A3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>160</v>
@@ -649,17 +436,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>160</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -669,17 +456,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>14</v>
+      <c r="A5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>162</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>1</v>
@@ -689,17 +476,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>16</v>
+      <c r="A6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -709,17 +496,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>19</v>
+      <c r="A7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
@@ -729,37 +516,37 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>21</v>
+      <c r="A8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>1</v>
@@ -769,8 +556,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>26</v>
+      <c r="A10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>6</v>
@@ -779,7 +566,7 @@
         <v>162</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>1</v>
@@ -789,17 +576,17 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
+      <c r="A11" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>1</v>
@@ -809,17 +596,17 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>31</v>
+      <c r="A12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>1</v>
@@ -829,17 +616,17 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>34</v>
+      <c r="A13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>1</v>
@@ -849,17 +636,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>37</v>
+      <c r="A14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>170</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>1</v>
@@ -869,11 +656,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>39</v>
+      <c r="A15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>160</v>
@@ -889,17 +676,17 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>40</v>
+      <c r="A16" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>172</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>2</v>
@@ -909,17 +696,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>43</v>
+      <c r="A17" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>170</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>2</v>
@@ -929,11 +716,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>46</v>
+      <c r="A18" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>184</v>
@@ -949,17 +736,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>48</v>
+      <c r="A19" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>201</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>2</v>
@@ -969,17 +756,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>51</v>
+      <c r="A20" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>2</v>
@@ -989,17 +776,17 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>53</v>
+      <c r="A21" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>2</v>
@@ -1009,17 +796,17 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>56</v>
+      <c r="A22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>158</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>2</v>
@@ -1029,17 +816,17 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>58</v>
+      <c r="A23" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>159</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>2</v>
@@ -1049,17 +836,17 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>60</v>
+      <c r="A24" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>2</v>
@@ -1069,17 +856,17 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>62</v>
+      <c r="A25" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>177</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>2</v>
@@ -1089,17 +876,17 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>64</v>
+      <c r="A26" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>2</v>
@@ -1109,17 +896,17 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>67</v>
+      <c r="A27" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>2</v>
@@ -1129,17 +916,17 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>69</v>
+      <c r="A28" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>163</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>2</v>
@@ -1149,17 +936,17 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>71</v>
+      <c r="A29" s="0" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>186</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>2</v>
@@ -1169,37 +956,37 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>73</v>
+      <c r="A30" s="0" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>2</v>
@@ -1209,11 +996,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>77</v>
+      <c r="A32" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>148</v>
@@ -1229,11 +1016,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>79</v>
+      <c r="A33" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>150</v>
@@ -1249,11 +1036,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>81</v>
+      <c r="A34" s="0" t="n">
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>140</v>
@@ -1269,11 +1056,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>83</v>
+      <c r="A35" s="0" t="n">
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>150</v>
@@ -1289,17 +1076,17 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>85</v>
+      <c r="A36" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>160</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>3</v>
@@ -1309,11 +1096,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>87</v>
+      <c r="A37" s="0" t="n">
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>160</v>
@@ -1329,17 +1116,17 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>89</v>
+      <c r="A38" s="0" t="n">
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>3</v>
@@ -1349,17 +1136,17 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>92</v>
+      <c r="A39" s="0" t="n">
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>3</v>
@@ -1369,17 +1156,17 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>94</v>
+      <c r="A40" s="0" t="n">
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>3</v>
@@ -1389,17 +1176,17 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>96</v>
+      <c r="A41" s="0" t="n">
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>160</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>3</v>
@@ -1409,17 +1196,17 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>98</v>
+      <c r="A42" s="0" t="n">
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>145</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>4</v>
@@ -1429,17 +1216,17 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>101</v>
+      <c r="A43" s="0" t="n">
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>142</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>4</v>
@@ -1449,11 +1236,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>103</v>
+      <c r="A44" s="0" t="n">
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>147</v>
@@ -1469,17 +1256,17 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>105</v>
+      <c r="A45" s="0" t="n">
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>4</v>
@@ -1489,17 +1276,17 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>107</v>
+      <c r="A46" s="0" t="n">
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>149</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>4</v>
@@ -1509,17 +1296,17 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>109</v>
+      <c r="A47" s="0" t="n">
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>155</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>4</v>
@@ -1529,8 +1316,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>110</v>
+      <c r="A48" s="0" t="n">
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>4</v>
@@ -1549,17 +1336,17 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>111</v>
+      <c r="A49" s="0" t="n">
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>148</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>4</v>
@@ -1569,17 +1356,17 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>113</v>
+      <c r="A50" s="0" t="n">
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>143</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>4</v>
@@ -1589,17 +1376,17 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>115</v>
+      <c r="A51" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>4</v>
@@ -1609,17 +1396,17 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>116</v>
+      <c r="A52" s="0" t="n">
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>4</v>
@@ -1629,11 +1416,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>118</v>
+      <c r="A53" s="0" t="n">
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>143</v>
@@ -1649,17 +1436,17 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>120</v>
+      <c r="A54" s="0" t="n">
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>4</v>
@@ -1669,17 +1456,17 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>122</v>
+      <c r="A55" s="0" t="n">
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>4</v>
@@ -1689,11 +1476,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>124</v>
+      <c r="A56" s="0" t="n">
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="n">
         <v>143</v>
@@ -1709,17 +1496,17 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>126</v>
+      <c r="A57" s="0" t="n">
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>143</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>4</v>
@@ -1729,17 +1516,17 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>128</v>
+      <c r="A58" s="0" t="n">
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C58" s="1" t="n">
         <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>5</v>
@@ -1749,17 +1536,17 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>130</v>
+      <c r="A59" s="0" t="n">
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="n">
         <v>110</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>5</v>
@@ -1769,17 +1556,17 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>132</v>
+      <c r="A60" s="0" t="n">
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1" t="n">
         <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>5</v>
@@ -1789,17 +1576,17 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>134</v>
+      <c r="A61" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="n">
         <v>105</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>5</v>
@@ -1809,17 +1596,17 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>135</v>
+      <c r="A62" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="n">
         <v>96</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>5</v>
@@ -1829,17 +1616,17 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>136</v>
+      <c r="A63" s="0" t="n">
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1" t="n">
         <v>95</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>5</v>
@@ -1849,11 +1636,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>139</v>
+      <c r="A64" s="0" t="n">
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1" t="n">
         <v>58</v>
@@ -1869,11 +1656,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>141</v>
+      <c r="A65" s="0" t="n">
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="n">
         <v>82</v>
@@ -1889,11 +1676,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>142</v>
+      <c r="A66" s="0" t="n">
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C66" s="1" t="n">
         <v>60</v>
@@ -1909,11 +1696,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>144</v>
+      <c r="A67" s="0" t="n">
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="C67" s="1" t="n">
         <v>72</v>
@@ -1929,11 +1716,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>146</v>
+      <c r="A68" s="0" t="n">
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="C68" s="1" t="n">
         <v>70</v>
@@ -1949,11 +1736,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>148</v>
+      <c r="A69" s="0" t="n">
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="C69" s="1" t="n">
         <v>71</v>
@@ -1969,11 +1756,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>150</v>
+      <c r="A70" s="0" t="n">
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C70" s="1" t="n">
         <v>96</v>
@@ -1988,10 +1775,4150 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F108" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D113" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F113" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F114" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F118" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F119" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E120" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E124" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F133" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F134" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F139" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C148" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D153" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E154" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D156" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F163" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F164" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F165" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F167" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F168" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F169" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D170" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F170" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C171" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C175" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D175" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F175" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F176" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F177" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C178" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C179" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C181" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F181" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E182" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F182" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F183" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F185" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E186" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F186" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F188" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F189" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E190" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F190" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C191" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D191" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F191" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E192" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F192" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E193" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F193" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E194" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F194" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C195" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E195" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F195" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E196" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F196" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E197" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F197" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E198" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E199" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F199" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E200" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F200" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E201" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F201" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C202" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F202" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C203" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F203" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C204" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F204" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F205" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C206" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F206" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C207" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F207" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F208" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D210" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F211" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F214" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C216" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C217" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E219" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D222" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E222" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F222" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E223" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F223" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F224" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="D225" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E226" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F226" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F227" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F228" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F229" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C230" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E231" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F231" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E232" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F232" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C233" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E233" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F233" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C234" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F235" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F236" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F238" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D239" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E239" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F239" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D240" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F240" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="D241" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E241" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F241" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D242" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E242" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F242" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F243" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C244" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D244" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E244" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F244" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E245" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F245" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F246" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C247" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E247" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F247" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C248" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E248" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F248" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C249" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E249" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F249" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E250" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D251" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E251" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F251" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C252" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F252" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C253" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F253" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F254" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="D255" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F255" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C256" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F256" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C257" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F257" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C258" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E258" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F258" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C259" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E259" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F259" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C260" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D260" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E260" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F260" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C261" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E261" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F261" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C262" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E262" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F262" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C263" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D263" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E263" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F263" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C264" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E264" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F264" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C265" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F265" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E266" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F266" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C267" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E267" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F267" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C268" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E268" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F268" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C269" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E269" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F269" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C270" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E270" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F270" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C271" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C272" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="D272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F272" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F273" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C274" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="D274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F274" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C275" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F275" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C276" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="D276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F276" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C277" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="D277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
